--- a/Data/SP_results.xlsx
+++ b/Data/SP_results.xlsx
@@ -25,10 +25,10 @@
     <t xml:space="preserve">train</t>
   </si>
   <si>
-    <t xml:space="preserve">sensitivity</t>
+    <t xml:space="preserve">Sensitivity</t>
   </si>
   <si>
-    <t xml:space="preserve">specificity</t>
+    <t xml:space="preserve">Specificity</t>
   </si>
   <si>
     <t xml:space="preserve">TV_P</t>
@@ -638,6 +638,91 @@
         <v>0.944444444444444</v>
       </c>
     </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="B17" t="n">
+        <v>0.686666666666667</v>
+      </c>
+      <c r="C17" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="D17" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="E17" t="n">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="B18" t="n">
+        <v>0.536666666666667</v>
+      </c>
+      <c r="C18" t="n">
+        <v>0.94</v>
+      </c>
+      <c r="D18" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="E18" t="n">
+        <v>0.766666666666667</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="B19" t="n">
+        <v>0.603333333333333</v>
+      </c>
+      <c r="C19" t="n">
+        <v>0.96</v>
+      </c>
+      <c r="D19" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="E19" t="n">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="B20" t="n">
+        <v>0.62</v>
+      </c>
+      <c r="C20" t="n">
+        <v>0.94</v>
+      </c>
+      <c r="D20" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="E20" t="n">
+        <v>0.928571428571429</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>1</v>
+      </c>
+      <c r="B21" t="n">
+        <v>0.58</v>
+      </c>
+      <c r="C21" t="n">
+        <v>0.91</v>
+      </c>
+      <c r="D21" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="E21" t="n">
+        <v>0.922222222222222</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
@@ -924,6 +1009,91 @@
         <v>0.944444444444444</v>
       </c>
     </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="B17" t="n">
+        <v>0.686666666666667</v>
+      </c>
+      <c r="C17" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="D17" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="E17" t="n">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="B18" t="n">
+        <v>0.536666666666667</v>
+      </c>
+      <c r="C18" t="n">
+        <v>0.94</v>
+      </c>
+      <c r="D18" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="E18" t="n">
+        <v>0.766666666666667</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>0.166666666666667</v>
+      </c>
+      <c r="B19" t="n">
+        <v>0.603333333333333</v>
+      </c>
+      <c r="C19" t="n">
+        <v>0.96</v>
+      </c>
+      <c r="D19" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="E19" t="n">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>0.125</v>
+      </c>
+      <c r="B20" t="n">
+        <v>0.62</v>
+      </c>
+      <c r="C20" t="n">
+        <v>0.94</v>
+      </c>
+      <c r="D20" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="E20" t="n">
+        <v>0.928571428571429</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="B21" t="n">
+        <v>0.58</v>
+      </c>
+      <c r="C21" t="n">
+        <v>0.91</v>
+      </c>
+      <c r="D21" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="E21" t="n">
+        <v>0.922222222222222</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
@@ -1210,6 +1380,91 @@
         <v>0.944444444444444</v>
       </c>
     </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="B17" t="n">
+        <v>0.686666666666667</v>
+      </c>
+      <c r="C17" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="D17" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="E17" t="n">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="B18" t="n">
+        <v>0.536666666666667</v>
+      </c>
+      <c r="C18" t="n">
+        <v>0.94</v>
+      </c>
+      <c r="D18" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="E18" t="n">
+        <v>0.766666666666667</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="B19" t="n">
+        <v>0.603333333333333</v>
+      </c>
+      <c r="C19" t="n">
+        <v>0.96</v>
+      </c>
+      <c r="D19" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="E19" t="n">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="B20" t="n">
+        <v>0.62</v>
+      </c>
+      <c r="C20" t="n">
+        <v>0.94</v>
+      </c>
+      <c r="D20" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="E20" t="n">
+        <v>0.928571428571429</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="B21" t="n">
+        <v>0.58</v>
+      </c>
+      <c r="C21" t="n">
+        <v>0.91</v>
+      </c>
+      <c r="D21" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="E21" t="n">
+        <v>0.922222222222222</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
